--- a/combined_output.xlsx
+++ b/combined_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,58 @@
         <v>32.14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Value4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73</v>
+      </c>
+      <c r="L5" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>52.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
